--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -20,6 +20,48 @@
   </si>
   <si>
     <t>Moneda y monto</t>
+  </si>
+  <si>
+    <t>Miguel A Castillo M</t>
+  </si>
+  <si>
+    <t>S/ 50.51</t>
+  </si>
+  <si>
+    <t>S/ 956.09</t>
+  </si>
+  <si>
+    <t>Alejandra S Castillo M</t>
+  </si>
+  <si>
+    <t>S/ 50.00</t>
+  </si>
+  <si>
+    <t>Monica L Morote C</t>
+  </si>
+  <si>
+    <t>S/ 300.00</t>
+  </si>
+  <si>
+    <t>S/ 500.00</t>
+  </si>
+  <si>
+    <t>S/ 16.00</t>
+  </si>
+  <si>
+    <t>S/ 105.30</t>
+  </si>
+  <si>
+    <t>Natan Pozo C</t>
+  </si>
+  <si>
+    <t>S/ 3.50</t>
+  </si>
+  <si>
+    <t>S/ 20.00</t>
+  </si>
+  <si>
+    <t>Julio S Aparicio E</t>
   </si>
 </sst>
 </file>
@@ -299,34 +341,111 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>45899.553935185184</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>45897.43987268519</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>45897.44045138889</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>45897.514085648145</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>45897.979583333334</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>45897.98017361111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>45881.94194444444</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>45879.503703703704</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>45879.79789351852</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>45878.75255787037</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Julio S Aparicio E</t>
+  </si>
+  <si>
+    <t>Melecio G Rodriguez M</t>
+  </si>
+  <si>
+    <t>S/ 1.20</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>45878.78099537037</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>S/ 1.20</t>
+  </si>
+  <si>
+    <t>Fanny R Mejia O</t>
+  </si>
+  <si>
+    <t>S/ 45.00</t>
+  </si>
+  <si>
+    <t>S/ 10.00</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,26 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>45903.754375</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>45903.77737268519</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>S/ 10.00</t>
+  </si>
+  <si>
+    <t>S/ 460.00</t>
   </si>
 </sst>
 </file>
@@ -496,13 +499,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>45903.7716087963</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>45903.754375</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>45903.77737268519</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -532,13 +532,37 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>45903.7716087963</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>45903.754375</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>45903.77737268519</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -565,13 +565,37 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>45903.7716087963</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>45903.754375</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>45903.77737268519</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -598,7 +598,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>45903.7716087963</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>S/ 460.00</t>
+  </si>
+  <si>
+    <t>S/ 235.00</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>45904.45523148148</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -623,7 +623,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>45904.45523148148</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -634,7 +634,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>45904.45523148148</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -645,7 +645,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>45904.45523148148</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>S/ 235.00</t>
+  </si>
+  <si>
+    <t>S/ 250.00</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>45906.47997685185</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -670,7 +670,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>45906.47997685185</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -681,7 +681,15 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>45906.47997685185</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -692,7 +692,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>45906.47997685185</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>S/ 250.00</t>
+  </si>
+  <si>
+    <t>Gabriela N Morote C</t>
+  </si>
+  <si>
+    <t>S/ 100.00</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2">
+        <v>45910.60138888889</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -720,7 +720,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>45910.60138888889</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -731,7 +731,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2">
+        <v>45910.60138888889</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -742,7 +742,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>45910.60138888889</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Fecha</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>S/ 100.00</t>
+  </si>
+  <si>
+    <t>Sandra C Sanchez A</t>
+  </si>
+  <si>
+    <t>S/ 128.00</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>S/ 128.00</t>
+  </si>
+  <si>
+    <t>S/ 472.00</t>
   </si>
 </sst>
 </file>
@@ -770,10 +773,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>45912.48899305556</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -795,10 +795,26 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>45912.48899305556</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -817,10 +817,26 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <v>45912.48899305556</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -839,10 +839,26 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>45912.48899305556</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2"/>

--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -861,7 +861,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>45911.91755787037</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
